--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.116832</v>
+        <v>0.120074</v>
       </c>
       <c r="N2">
-        <v>0.350496</v>
+        <v>0.360222</v>
       </c>
       <c r="O2">
-        <v>0.006012118201479615</v>
+        <v>0.00855715934293867</v>
       </c>
       <c r="P2">
-        <v>0.006012118201479615</v>
+        <v>0.008580002469517843</v>
       </c>
       <c r="Q2">
-        <v>0.06118176393599999</v>
+        <v>0.172179391856</v>
       </c>
       <c r="R2">
-        <v>0.5506358754239998</v>
+        <v>1.549614526704</v>
       </c>
       <c r="S2">
-        <v>8.487234678778301E-06</v>
+        <v>3.32274387373728E-05</v>
       </c>
       <c r="T2">
-        <v>8.492908050081168E-06</v>
+        <v>3.334350353798883E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.339502</v>
       </c>
       <c r="O3">
-        <v>0.0229767083079931</v>
+        <v>0.03182018881185777</v>
       </c>
       <c r="P3">
-        <v>0.02297670830799309</v>
+        <v>0.03190513202392993</v>
       </c>
       <c r="Q3">
-        <v>0.2338203436153333</v>
+        <v>0.6402569519626667</v>
       </c>
       <c r="R3">
-        <v>2.104383092537999</v>
+        <v>5.762312567664</v>
       </c>
       <c r="S3">
-        <v>3.243594171315191E-05</v>
+        <v>0.0001235577522849474</v>
       </c>
       <c r="T3">
-        <v>3.245762382138405E-05</v>
+        <v>0.000123989344560141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.387742666666665</v>
+        <v>7.033632000000001</v>
       </c>
       <c r="N4">
-        <v>19.163228</v>
+        <v>21.100896</v>
       </c>
       <c r="O4">
-        <v>0.328710147499269</v>
+        <v>0.5012568064992622</v>
       </c>
       <c r="P4">
-        <v>0.328710147499269</v>
+        <v>0.5025948992261415</v>
       </c>
       <c r="Q4">
-        <v>3.345088365481332</v>
+        <v>10.085834404608</v>
       </c>
       <c r="R4">
-        <v>30.10579528933199</v>
+        <v>90.77250964147201</v>
       </c>
       <c r="S4">
-        <v>0.0004640361466006326</v>
+        <v>0.001946379535796466</v>
       </c>
       <c r="T4">
-        <v>0.0004643463358975304</v>
+        <v>0.001953178319010872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.48167633333333</v>
+        <v>0.112075</v>
       </c>
       <c r="N5">
-        <v>37.445029</v>
+        <v>0.22415</v>
       </c>
       <c r="O5">
-        <v>0.6423010259912583</v>
+        <v>0.007987104896645831</v>
       </c>
       <c r="P5">
-        <v>0.6423010259912583</v>
+        <v>0.005338950851259568</v>
       </c>
       <c r="Q5">
-        <v>6.536316890505666</v>
+        <v>0.1607092738</v>
       </c>
       <c r="R5">
-        <v>58.82685201455099</v>
+        <v>0.9642556428000001</v>
       </c>
       <c r="S5">
-        <v>0.0009067286036835205</v>
+        <v>3.101391805462511E-05</v>
       </c>
       <c r="T5">
-        <v>0.00090733471488868</v>
+        <v>2.074816729139307E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>290.8976950000001</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>872.6930850000001</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.7841854820267643</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.78470967813754</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.116832</v>
+        <v>6.319711333333333</v>
       </c>
       <c r="N6">
-        <v>0.350496</v>
+        <v>18.959134</v>
       </c>
       <c r="O6">
-        <v>0.006012118201479615</v>
+        <v>0.4503787404492957</v>
       </c>
       <c r="P6">
-        <v>0.006012118201479615</v>
+        <v>0.4515810154291511</v>
       </c>
       <c r="Q6">
-        <v>33.98615950224001</v>
+        <v>9.062112148165333</v>
       </c>
       <c r="R6">
-        <v>305.87543552016</v>
+        <v>81.55900933348799</v>
       </c>
       <c r="S6">
-        <v>0.004714615809829175</v>
+        <v>0.001748820070674866</v>
       </c>
       <c r="T6">
-        <v>0.004717767338807915</v>
+        <v>0.001754928770608692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4465006666666667</v>
+        <v>0.120074</v>
       </c>
       <c r="N7">
-        <v>1.339502</v>
+        <v>0.360222</v>
       </c>
       <c r="O7">
-        <v>0.0229767083079931</v>
+        <v>0.00855715934293867</v>
       </c>
       <c r="P7">
-        <v>0.02297670830799309</v>
+        <v>0.008580002469517843</v>
       </c>
       <c r="Q7">
-        <v>129.8860147492967</v>
+        <v>34.92924982943001</v>
       </c>
       <c r="R7">
-        <v>1168.97413274367</v>
+        <v>314.3632484648701</v>
       </c>
       <c r="S7">
-        <v>0.01801800107989193</v>
+        <v>0.00674069931563259</v>
       </c>
       <c r="T7">
-        <v>0.0180300453810254</v>
+        <v>0.006764244853652093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.387742666666665</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N8">
-        <v>19.163228</v>
+        <v>1.339502</v>
       </c>
       <c r="O8">
-        <v>0.328710147499269</v>
+        <v>0.03182018881185777</v>
       </c>
       <c r="P8">
-        <v>0.328710147499269</v>
+        <v>0.03190513202392993</v>
       </c>
       <c r="Q8">
-        <v>1858.179617986487</v>
+        <v>129.8860147492967</v>
       </c>
       <c r="R8">
-        <v>16723.61656187838</v>
+        <v>1168.97413274367</v>
       </c>
       <c r="S8">
-        <v>0.2577697254638031</v>
+        <v>0.02506559903250907</v>
       </c>
       <c r="T8">
-        <v>0.2579420340446947</v>
+        <v>0.02515315419368247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.48167633333333</v>
+        <v>7.033632000000001</v>
       </c>
       <c r="N9">
-        <v>37.445029</v>
+        <v>21.100896</v>
       </c>
       <c r="O9">
-        <v>0.6423010259912583</v>
+        <v>0.5012568064992622</v>
       </c>
       <c r="P9">
-        <v>0.6423010259912583</v>
+        <v>0.5025948992261415</v>
       </c>
       <c r="Q9">
-        <v>3630.890875102719</v>
+        <v>2046.067336278241</v>
       </c>
       <c r="R9">
-        <v>32678.01787592447</v>
+        <v>18414.60602650416</v>
       </c>
       <c r="S9">
-        <v>0.5036831396732401</v>
+        <v>0.3948531606243773</v>
       </c>
       <c r="T9">
-        <v>0.504019831373012</v>
+        <v>0.3962323988414035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.68424166666667</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>116.052725</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.1042827812651277</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.1043524900644015</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.116832</v>
+        <v>0.112075</v>
       </c>
       <c r="N10">
-        <v>0.350496</v>
+        <v>0.22415</v>
       </c>
       <c r="O10">
-        <v>0.006012118201479615</v>
+        <v>0.007987104896645831</v>
       </c>
       <c r="P10">
-        <v>0.006012118201479615</v>
+        <v>0.005338950851259568</v>
       </c>
       <c r="Q10">
-        <v>4.5195573224</v>
+        <v>32.60235916712501</v>
       </c>
       <c r="R10">
-        <v>40.6760159016</v>
+        <v>195.61415500275</v>
       </c>
       <c r="S10">
-        <v>0.0006269604073449917</v>
+        <v>0.006291652445987661</v>
       </c>
       <c r="T10">
-        <v>0.0006273795048859092</v>
+        <v>0.004209086296634066</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.68424166666667</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>116.052725</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.1042827812651277</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.1043524900644015</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4465006666666667</v>
+        <v>6.319711333333333</v>
       </c>
       <c r="N11">
-        <v>1.339502</v>
+        <v>18.959134</v>
       </c>
       <c r="O11">
-        <v>0.0229767083079931</v>
+        <v>0.4503787404492957</v>
       </c>
       <c r="P11">
-        <v>0.02297670830799309</v>
+        <v>0.4515810154291511</v>
       </c>
       <c r="Q11">
-        <v>17.27253969366111</v>
+        <v>1838.389459932044</v>
       </c>
       <c r="R11">
-        <v>155.45285724295</v>
+        <v>16545.50513938839</v>
       </c>
       <c r="S11">
-        <v>0.002396075046675087</v>
+        <v>0.3547751708079643</v>
       </c>
       <c r="T11">
-        <v>0.002397676725422502</v>
+        <v>0.3560144149696587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>6.387742666666665</v>
+        <v>0.120074</v>
       </c>
       <c r="N12">
-        <v>19.163228</v>
+        <v>0.360222</v>
       </c>
       <c r="O12">
-        <v>0.328710147499269</v>
+        <v>0.00855715934293867</v>
       </c>
       <c r="P12">
-        <v>0.328710147499269</v>
+        <v>0.008580002469517843</v>
       </c>
       <c r="Q12">
-        <v>247.1049810218111</v>
+        <v>6.568931504615334</v>
       </c>
       <c r="R12">
-        <v>2223.944829196299</v>
+        <v>59.120383541538</v>
       </c>
       <c r="S12">
-        <v>0.03427880841129414</v>
+        <v>0.001267682309635234</v>
       </c>
       <c r="T12">
-        <v>0.03430172240098543</v>
+        <v>0.001272110375718666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.48167633333333</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N13">
-        <v>37.445029</v>
+        <v>1.339502</v>
       </c>
       <c r="O13">
-        <v>0.6423010259912583</v>
+        <v>0.03182018881185777</v>
       </c>
       <c r="P13">
-        <v>0.6423010259912583</v>
+        <v>0.03190513202392993</v>
       </c>
       <c r="Q13">
-        <v>482.8441836837805</v>
+        <v>24.42687256273977</v>
       </c>
       <c r="R13">
-        <v>4345.597653154025</v>
+        <v>219.841853064658</v>
       </c>
       <c r="S13">
-        <v>0.06698093739981349</v>
+        <v>0.004713934710042736</v>
       </c>
       <c r="T13">
-        <v>0.06702571143310769</v>
+        <v>0.004730400676515884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.116832</v>
+        <v>7.033632000000001</v>
       </c>
       <c r="N14">
-        <v>0.350496</v>
+        <v>21.100896</v>
       </c>
       <c r="O14">
-        <v>0.006012118201479615</v>
+        <v>0.5012568064992622</v>
       </c>
       <c r="P14">
-        <v>0.006012118201479615</v>
+        <v>0.5025948992261415</v>
       </c>
       <c r="Q14">
-        <v>0.086853901872</v>
+        <v>384.791435586976</v>
       </c>
       <c r="R14">
-        <v>0.521123411232</v>
+        <v>3463.122920282784</v>
       </c>
       <c r="S14">
-        <v>1.204851577549073E-05</v>
+        <v>0.0742576316178714</v>
       </c>
       <c r="T14">
-        <v>8.037713145606471E-06</v>
+        <v>0.07451701655801284</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>54.70735966666666</v>
+      </c>
+      <c r="H15">
+        <v>164.122079</v>
+      </c>
+      <c r="I15">
+        <v>0.1481428893434501</v>
+      </c>
+      <c r="J15">
+        <v>0.1482645698807303</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7434085</v>
-      </c>
-      <c r="H15">
-        <v>1.486817</v>
-      </c>
-      <c r="I15">
-        <v>0.002004038405719556</v>
-      </c>
-      <c r="J15">
-        <v>0.001336918682608127</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4465006666666667</v>
+        <v>0.112075</v>
       </c>
       <c r="N15">
-        <v>1.339502</v>
+        <v>0.22415</v>
       </c>
       <c r="O15">
-        <v>0.0229767083079931</v>
+        <v>0.007987104896645831</v>
       </c>
       <c r="P15">
-        <v>0.02297670830799309</v>
+        <v>0.005338950851259568</v>
       </c>
       <c r="Q15">
-        <v>0.3319323908556667</v>
+        <v>6.131327334641666</v>
       </c>
       <c r="R15">
-        <v>1.991594345134</v>
+        <v>36.78796400785</v>
       </c>
       <c r="S15">
-        <v>4.604620588623377E-05</v>
+        <v>0.001183232796878332</v>
       </c>
       <c r="T15">
-        <v>3.071799060179335E-05</v>
+        <v>0.0007915772515763585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.387742666666665</v>
+        <v>6.319711333333333</v>
       </c>
       <c r="N16">
-        <v>19.163228</v>
+        <v>18.959134</v>
       </c>
       <c r="O16">
-        <v>0.328710147499269</v>
+        <v>0.4503787404492957</v>
       </c>
       <c r="P16">
-        <v>0.328710147499269</v>
+        <v>0.4515810154291511</v>
       </c>
       <c r="Q16">
-        <v>4.748702194212666</v>
+        <v>345.7347209021762</v>
       </c>
       <c r="R16">
-        <v>28.492213165276</v>
+        <v>3111.612488119586</v>
       </c>
       <c r="S16">
-        <v>0.0006587477599382753</v>
+        <v>0.06672040790902245</v>
       </c>
       <c r="T16">
-        <v>0.000439458737354646</v>
+        <v>0.06695346501890649</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>12.48167633333333</v>
+        <v>0.120074</v>
       </c>
       <c r="N17">
-        <v>37.445029</v>
+        <v>0.360222</v>
       </c>
       <c r="O17">
-        <v>0.6423010259912583</v>
+        <v>0.00855715934293867</v>
       </c>
       <c r="P17">
-        <v>0.6423010259912583</v>
+        <v>0.008580002469517843</v>
       </c>
       <c r="Q17">
-        <v>9.278984280448833</v>
+        <v>0.109173922428</v>
       </c>
       <c r="R17">
-        <v>55.673905682693</v>
+        <v>0.655043534568</v>
       </c>
       <c r="S17">
-        <v>0.001287195924119556</v>
+        <v>2.106854821643772E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008587042415060816</v>
+        <v>1.409476101057284E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.116832</v>
+        <v>0.4465006666666667</v>
       </c>
       <c r="N18">
-        <v>0.350496</v>
+        <v>1.339502</v>
       </c>
       <c r="O18">
-        <v>0.006012118201479615</v>
+        <v>0.03182018881185777</v>
       </c>
       <c r="P18">
-        <v>0.006012118201479615</v>
+        <v>0.03190513202392993</v>
       </c>
       <c r="Q18">
-        <v>4.685687324736</v>
+        <v>0.405968229148</v>
       </c>
       <c r="R18">
-        <v>42.171185922624</v>
+        <v>2.435809374888</v>
       </c>
       <c r="S18">
-        <v>0.0006500062338511799</v>
+        <v>7.834436118009102E-05</v>
       </c>
       <c r="T18">
-        <v>0.0006504407365901035</v>
+        <v>5.241201415567159E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4465006666666667</v>
+        <v>7.033632000000001</v>
       </c>
       <c r="N19">
-        <v>1.339502</v>
+        <v>21.100896</v>
       </c>
       <c r="O19">
-        <v>0.0229767083079931</v>
+        <v>0.5012568064992622</v>
       </c>
       <c r="P19">
-        <v>0.02297670830799309</v>
+        <v>0.5025948992261415</v>
       </c>
       <c r="Q19">
-        <v>17.90744414446533</v>
+        <v>6.395132954304001</v>
       </c>
       <c r="R19">
-        <v>161.166997300188</v>
+        <v>38.370797725824</v>
       </c>
       <c r="S19">
-        <v>0.002484150033826701</v>
+        <v>0.001234142403256985</v>
       </c>
       <c r="T19">
-        <v>0.002485810587122013</v>
+        <v>0.0008256355420517133</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.387742666666665</v>
+        <v>0.112075</v>
       </c>
       <c r="N20">
-        <v>19.163228</v>
+        <v>0.22415</v>
       </c>
       <c r="O20">
-        <v>0.328710147499269</v>
+        <v>0.007987104896645831</v>
       </c>
       <c r="P20">
-        <v>0.328710147499269</v>
+        <v>0.005338950851259568</v>
       </c>
       <c r="Q20">
-        <v>256.1880721623813</v>
+        <v>0.10190105565</v>
       </c>
       <c r="R20">
-        <v>2305.692649461432</v>
+        <v>0.4076042226</v>
       </c>
       <c r="S20">
-        <v>0.03553882971763295</v>
+        <v>1.966501941600394E-05</v>
       </c>
       <c r="T20">
-        <v>0.03556258598033672</v>
+        <v>8.770537836445028E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.48167633333333</v>
+        <v>6.319711333333333</v>
       </c>
       <c r="N21">
-        <v>37.445029</v>
+        <v>18.959134</v>
       </c>
       <c r="O21">
-        <v>0.6423010259912583</v>
+        <v>0.4503787404492957</v>
       </c>
       <c r="P21">
-        <v>0.6423010259912583</v>
+        <v>0.4515810154291511</v>
       </c>
       <c r="Q21">
-        <v>500.5925823965806</v>
+        <v>5.746020577916</v>
       </c>
       <c r="R21">
-        <v>4505.333241569226</v>
+        <v>34.476123467496</v>
       </c>
       <c r="S21">
-        <v>0.06944302439040165</v>
+        <v>0.001108875717809861</v>
       </c>
       <c r="T21">
-        <v>0.06948944422874381</v>
+        <v>0.0007418327106546123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H22">
+        <v>64.018697</v>
+      </c>
+      <c r="I22">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J22">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.120074</v>
+      </c>
+      <c r="N22">
+        <v>0.360222</v>
+      </c>
+      <c r="O22">
+        <v>0.00855715934293867</v>
+      </c>
+      <c r="P22">
+        <v>0.008580002469517843</v>
+      </c>
+      <c r="Q22">
+        <v>2.562327007859334</v>
+      </c>
+      <c r="R22">
+        <v>23.06094307073401</v>
+      </c>
+      <c r="S22">
+        <v>0.0004944817307170367</v>
+      </c>
+      <c r="T22">
+        <v>0.0004962089755985206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H23">
+        <v>64.018697</v>
+      </c>
+      <c r="I23">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J23">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4465006666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.339502</v>
+      </c>
+      <c r="O23">
+        <v>0.03182018881185777</v>
+      </c>
+      <c r="P23">
+        <v>0.03190513202392993</v>
+      </c>
+      <c r="Q23">
+        <v>9.528130296543779</v>
+      </c>
+      <c r="R23">
+        <v>85.753172668894</v>
+      </c>
+      <c r="S23">
+        <v>0.001838752955840931</v>
+      </c>
+      <c r="T23">
+        <v>0.001845175795015766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H24">
+        <v>64.018697</v>
+      </c>
+      <c r="I24">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J24">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.033632000000001</v>
+      </c>
+      <c r="N24">
+        <v>21.100896</v>
+      </c>
+      <c r="O24">
+        <v>0.5012568064992622</v>
+      </c>
+      <c r="P24">
+        <v>0.5025948992261415</v>
+      </c>
+      <c r="Q24">
+        <v>150.094651939168</v>
+      </c>
+      <c r="R24">
+        <v>1350.851867452512</v>
+      </c>
+      <c r="S24">
+        <v>0.02896549231796003</v>
+      </c>
+      <c r="T24">
+        <v>0.02906666996566262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H25">
+        <v>64.018697</v>
+      </c>
+      <c r="I25">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J25">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.112075</v>
+      </c>
+      <c r="N25">
+        <v>0.22415</v>
+      </c>
+      <c r="O25">
+        <v>0.007987104896645831</v>
+      </c>
+      <c r="P25">
+        <v>0.005338950851259568</v>
+      </c>
+      <c r="Q25">
+        <v>2.391631822091667</v>
+      </c>
+      <c r="R25">
+        <v>14.34979093255</v>
+      </c>
+      <c r="S25">
+        <v>0.0004615407163092084</v>
+      </c>
+      <c r="T25">
+        <v>0.0003087685979213051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H26">
+        <v>64.018697</v>
+      </c>
+      <c r="I26">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J26">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.319711333333333</v>
+      </c>
+      <c r="N26">
+        <v>18.959134</v>
+      </c>
+      <c r="O26">
+        <v>0.4503787404492957</v>
+      </c>
+      <c r="P26">
+        <v>0.4515810154291511</v>
+      </c>
+      <c r="Q26">
+        <v>134.8598949920442</v>
+      </c>
+      <c r="R26">
+        <v>1213.739054928398</v>
+      </c>
+      <c r="S26">
+        <v>0.02602546594382412</v>
+      </c>
+      <c r="T26">
+        <v>0.02611637395932253</v>
       </c>
     </row>
   </sheetData>
